--- a/Series Univariadas/Bases de Datos/Desempleo.xlsx
+++ b/Series Univariadas/Bases de Datos/Desempleo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiocalderon/Documents/GitHub/TimeSeries/Series Univariadas/Bases de Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C63A4C8-969B-E043-916E-92CA9CDC56F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F0CAB3-CE93-F34B-B383-7630AE4AE95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{6F259C12-957E-8F4C-90AC-84628BDF7C69}"/>
   </bookViews>
